--- a/data/trans_orig/P04C05_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P04C05_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>74413</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>59494</v>
+        <v>59161</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>90381</v>
+        <v>90121</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2333822688260466</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1865923375231083</v>
+        <v>0.1855471638495655</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2834645107457567</v>
+        <v>0.2826489194843335</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>84</v>
@@ -762,19 +762,19 @@
         <v>57111</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>44392</v>
+        <v>46098</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>72787</v>
+        <v>72343</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1806946231214948</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1404532849579984</v>
+        <v>0.1458530336024668</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2302934910071319</v>
+        <v>0.2288906272220663</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>159</v>
@@ -783,19 +783,19 @@
         <v>131523</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>113073</v>
+        <v>114358</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>153509</v>
+        <v>153578</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2071539875218019</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1780933236848465</v>
+        <v>0.1801180929225407</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2417829316089058</v>
+        <v>0.2418915084091066</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4492</v>
+        <v>5098</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.002592470583437507</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01408720181800952</v>
+        <v>0.01598887393186568</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -833,19 +833,19 @@
         <v>2316</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5852</v>
+        <v>5965</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.007326812028082065</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.001654160778603001</v>
+        <v>0.001679388263469304</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01851464994886238</v>
+        <v>0.01887280342006351</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -854,19 +854,19 @@
         <v>3142</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>957</v>
+        <v>988</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7003</v>
+        <v>7441</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.004949259115929368</v>
+        <v>0.004949259115929367</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001506569563460892</v>
+        <v>0.001556066088917494</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01103066156572517</v>
+        <v>0.01172032474343049</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>243606</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>227598</v>
+        <v>227879</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>258107</v>
+        <v>259029</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7640252605905158</v>
+        <v>0.7640252605905159</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7138192926772693</v>
+        <v>0.714700796910875</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8095060529302056</v>
+        <v>0.8123984739303057</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>450</v>
@@ -904,19 +904,19 @@
         <v>256635</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>241441</v>
+        <v>241969</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>269467</v>
+        <v>267541</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.8119785648504232</v>
+        <v>0.811978564850423</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7639059009032844</v>
+        <v>0.7655758165187901</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8525776448595642</v>
+        <v>0.8464861104440198</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>705</v>
@@ -925,19 +925,19 @@
         <v>500240</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>478639</v>
+        <v>479223</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>518546</v>
+        <v>517619</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7878967533622687</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7538737027019345</v>
+        <v>0.7547930647534717</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8167294076931567</v>
+        <v>0.8152681425055223</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>264949</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>232910</v>
+        <v>237505</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>291759</v>
+        <v>295758</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4992948764362052</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4389169621121894</v>
+        <v>0.4475764693451022</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5498179253889128</v>
+        <v>0.5573533098163423</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>423</v>
@@ -1050,19 +1050,19 @@
         <v>317711</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>296197</v>
+        <v>295592</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>339829</v>
+        <v>338969</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.581362218111902</v>
+        <v>0.5813622181119021</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5419949030308925</v>
+        <v>0.5408872749087951</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6218351699501454</v>
+        <v>0.6202611137014209</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>624</v>
@@ -1071,19 +1071,19 @@
         <v>582660</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>545861</v>
+        <v>546312</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>618362</v>
+        <v>615035</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.5409322512675654</v>
+        <v>0.5409322512675653</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5067684052529358</v>
+        <v>0.507187349536508</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5740772887588562</v>
+        <v>0.5709882548187861</v>
       </c>
     </row>
     <row r="9">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9525</v>
+        <v>8931</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.005169740936856901</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01794992209590894</v>
+        <v>0.01683127681432261</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4975</v>
+        <v>4876</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.002495228403595774</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.009103650394894653</v>
+        <v>0.008922180579144156</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -1142,19 +1142,19 @@
         <v>4107</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1349</v>
+        <v>782</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>11468</v>
+        <v>10651</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.003812810414133006</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.001252828621986711</v>
+        <v>0.0007255874328915457</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01064676364761664</v>
+        <v>0.009888200086139035</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>262954</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>236147</v>
+        <v>232632</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>296091</v>
+        <v>290926</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4955353826269378</v>
+        <v>0.4955353826269377</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4450164210894516</v>
+        <v>0.4383926943459627</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5579805184625104</v>
+        <v>0.5482484168846166</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>292</v>
@@ -1192,19 +1192,19 @@
         <v>227419</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>206182</v>
+        <v>205531</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>249826</v>
+        <v>248568</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.416142553484502</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3772820191124266</v>
+        <v>0.376089498490728</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4571424844638715</v>
+        <v>0.4548411187654811</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>471</v>
@@ -1213,19 +1213,19 @@
         <v>490374</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>453642</v>
+        <v>457783</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>527423</v>
+        <v>528043</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4552549383183017</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.421153449684787</v>
+        <v>0.4249986297920184</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4896509814719562</v>
+        <v>0.4902260856191387</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>51890</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>41043</v>
+        <v>40505</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>66524</v>
+        <v>65406</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1647797678901024</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1303345425879106</v>
+        <v>0.128625465781945</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2112485314387068</v>
+        <v>0.207698763820274</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>101</v>
@@ -1338,19 +1338,19 @@
         <v>65880</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>55116</v>
+        <v>54755</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>79599</v>
+        <v>78648</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1848591501150618</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.154655388582302</v>
+        <v>0.1536422536506371</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2233541523486658</v>
+        <v>0.2206863601814553</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>160</v>
@@ -1359,19 +1359,19 @@
         <v>117771</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>101566</v>
+        <v>99920</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>135565</v>
+        <v>136215</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1754397329209768</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1512995639046668</v>
+        <v>0.1488476662984098</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.201946707425171</v>
+        <v>0.2029158471767557</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>4007</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>995</v>
+        <v>1154</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10410</v>
+        <v>9982</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01272563982480953</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003158136817685719</v>
+        <v>0.003663947769634215</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03305849154399927</v>
+        <v>0.03169811583196855</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1409,19 +1409,19 @@
         <v>2919</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1043</v>
+        <v>1025</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6822</v>
+        <v>6245</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008191419577157862</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002926011858183784</v>
+        <v>0.002875365942016799</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01914313570031733</v>
+        <v>0.01752261203416679</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -1430,19 +1430,19 @@
         <v>6927</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3242</v>
+        <v>3508</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12748</v>
+        <v>13065</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01031846271444168</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004830180185003646</v>
+        <v>0.005225347627322169</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01899006373356012</v>
+        <v>0.01946191762537332</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>259010</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>244212</v>
+        <v>244161</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>270632</v>
+        <v>271352</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8224945922850881</v>
+        <v>0.822494592285088</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7755027639905413</v>
+        <v>0.7753392217461356</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8594011619011079</v>
+        <v>0.8616876180092854</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>430</v>
@@ -1480,19 +1480,19 @@
         <v>287581</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>273939</v>
+        <v>275039</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>298582</v>
+        <v>298922</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8069494303077802</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7686685423645426</v>
+        <v>0.7717545134033004</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8378163312538871</v>
+        <v>0.8387702998057774</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>726</v>
@@ -1501,19 +1501,19 @@
         <v>546592</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>528445</v>
+        <v>527580</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>563058</v>
+        <v>564047</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8142418043645815</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7872096576937527</v>
+        <v>0.7859209746359118</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8387707686207042</v>
+        <v>0.840245106880364</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>162315</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>136271</v>
+        <v>135965</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>186816</v>
+        <v>189055</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4349912046675822</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3651970369613223</v>
+        <v>0.3643769336052744</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5006518238139643</v>
+        <v>0.5066539940801248</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>289</v>
@@ -1626,19 +1626,19 @@
         <v>208720</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>188067</v>
+        <v>188398</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>227522</v>
+        <v>229971</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4979213320536571</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4486517261270808</v>
+        <v>0.4494419826253701</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.542775190148392</v>
+        <v>0.5486179272845417</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>409</v>
@@ -1647,19 +1647,19 @@
         <v>371034</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>342583</v>
+        <v>340105</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>403784</v>
+        <v>405579</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.4682844844200822</v>
+        <v>0.4682844844200824</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4323762762402334</v>
+        <v>0.4292482908813818</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5096181072889648</v>
+        <v>0.5118830601248442</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>8023</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3363</v>
+        <v>3282</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17269</v>
+        <v>17278</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02150036957162746</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.009012147320943104</v>
+        <v>0.008794595475046348</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04627938464109756</v>
+        <v>0.04630388867149706</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -1697,19 +1697,19 @@
         <v>6023</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2854</v>
+        <v>3007</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10972</v>
+        <v>11166</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01436781311913432</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006807904646739083</v>
+        <v>0.007173442795919351</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02617509722972355</v>
+        <v>0.02663825293313248</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>18</v>
@@ -1718,19 +1718,19 @@
         <v>14045</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8183</v>
+        <v>7788</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>25529</v>
+        <v>24464</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01772687971570354</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0103279579548275</v>
+        <v>0.009829107101412656</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0322206544517254</v>
+        <v>0.03087601106393988</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>202807</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>177482</v>
+        <v>177550</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>228921</v>
+        <v>228626</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5435084257607904</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4756376045673371</v>
+        <v>0.475821666495834</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6134912125931382</v>
+        <v>0.6126990220065301</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>296</v>
@@ -1768,19 +1768,19 @@
         <v>204440</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>184586</v>
+        <v>182525</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>224633</v>
+        <v>225352</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4877108548272086</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.440349133548938</v>
+        <v>0.4354325403468881</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5358847163820615</v>
+        <v>0.5375994475585972</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>461</v>
@@ -1789,19 +1789,19 @@
         <v>407247</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>374991</v>
+        <v>376068</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>437246</v>
+        <v>438991</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.5139886358642141</v>
+        <v>0.5139886358642142</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4732776433245083</v>
+        <v>0.4746374985807775</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5518503347663088</v>
+        <v>0.5540529344140394</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>58785</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>47072</v>
+        <v>47885</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>69479</v>
+        <v>69629</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2858307014685113</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2288753843712888</v>
+        <v>0.2328282212068657</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3378255204108187</v>
+        <v>0.3385541337933699</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>155</v>
@@ -1914,19 +1914,19 @@
         <v>68897</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>58980</v>
+        <v>59425</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>79124</v>
+        <v>78614</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3009684266080587</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2576488542724362</v>
+        <v>0.2595897693764028</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3456452340517639</v>
+        <v>0.3434137487604919</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>238</v>
@@ -1935,19 +1935,19 @@
         <v>127682</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>113653</v>
+        <v>113689</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>143312</v>
+        <v>144548</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2938045455139066</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2615215906719056</v>
+        <v>0.2616062474833955</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3297695039633099</v>
+        <v>0.3326144951445914</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>7779</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3745</v>
+        <v>3478</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15297</v>
+        <v>16303</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03782300685245542</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01820964351801731</v>
+        <v>0.01691178933547789</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07438001950971093</v>
+        <v>0.07926769731920197</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>12</v>
@@ -1985,19 +1985,19 @@
         <v>5269</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2793</v>
+        <v>2882</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8757</v>
+        <v>9437</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02301547699420366</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01220056243666343</v>
+        <v>0.01258949631374464</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03825368370149619</v>
+        <v>0.04122306027223041</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>20</v>
@@ -2006,19 +2006,19 @@
         <v>13047</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>7826</v>
+        <v>8075</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>21608</v>
+        <v>20985</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03002309420383905</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01800753438938747</v>
+        <v>0.0185804703236964</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04972101675295965</v>
+        <v>0.04828836282348677</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>139101</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>127736</v>
+        <v>126258</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>151607</v>
+        <v>150963</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6763462916790332</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6210883946417517</v>
+        <v>0.613900990200751</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7371531197642838</v>
+        <v>0.7340253549651004</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>328</v>
@@ -2056,19 +2056,19 @@
         <v>154752</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>144100</v>
+        <v>144400</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>164774</v>
+        <v>164161</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6760160963977377</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6294818216853306</v>
+        <v>0.6307941894561253</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7197939148317019</v>
+        <v>0.7171188113362963</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>516</v>
@@ -2077,19 +2077,19 @@
         <v>293852</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>278973</v>
+        <v>278452</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>309478</v>
+        <v>309000</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6761723602822544</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6419343046373693</v>
+        <v>0.6407344578890091</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7121286254999114</v>
+        <v>0.7110279564681359</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>50198</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>39883</v>
+        <v>39049</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>62336</v>
+        <v>62555</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.185434795609282</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1473282958390354</v>
+        <v>0.1442488482473394</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2302725194204982</v>
+        <v>0.2310785276651913</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>69</v>
@@ -2202,19 +2202,19 @@
         <v>35239</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>27162</v>
+        <v>27808</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>45344</v>
+        <v>45023</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.1336065402561915</v>
+        <v>0.1336065402561914</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1029824313239192</v>
+        <v>0.1054313986470653</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1719218535416372</v>
+        <v>0.170702966712542</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>140</v>
@@ -2223,19 +2223,19 @@
         <v>85437</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>71854</v>
+        <v>70753</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>100171</v>
+        <v>100701</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1598579755045164</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1344433150176981</v>
+        <v>0.1323823352326481</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1874260369719115</v>
+        <v>0.1884175551777434</v>
       </c>
     </row>
     <row r="25">
@@ -2252,19 +2252,19 @@
         <v>3454</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>842</v>
+        <v>1154</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9754</v>
+        <v>9944</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01276045302412446</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003109146691674807</v>
+        <v>0.004261077047252682</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0360332829312441</v>
+        <v>0.03673334829082482</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -2273,19 +2273,19 @@
         <v>3477</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1567</v>
+        <v>1502</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6821</v>
+        <v>7503</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0131831862615042</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.005942483127522004</v>
+        <v>0.005693793421913416</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02586176885816677</v>
+        <v>0.02844775445014004</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -2294,19 +2294,19 @@
         <v>6931</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3669</v>
+        <v>3693</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>13141</v>
+        <v>13481</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01296906841916538</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.006864871627227417</v>
+        <v>0.006910455851981104</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02458674685571316</v>
+        <v>0.02522356568955809</v>
       </c>
     </row>
     <row r="26">
@@ -2323,19 +2323,19 @@
         <v>217054</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>204929</v>
+        <v>204421</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>228040</v>
+        <v>228022</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8018047513665937</v>
+        <v>0.8018047513665936</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7570155116739073</v>
+        <v>0.755136242025818</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8423877514016289</v>
+        <v>0.842319137114286</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>384</v>
@@ -2344,19 +2344,19 @@
         <v>225034</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>215089</v>
+        <v>215781</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>233580</v>
+        <v>232869</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8532102734823044</v>
+        <v>0.8532102734823042</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8155027041571482</v>
+        <v>0.8181280212557933</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8856125646593761</v>
+        <v>0.8829145221807545</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>680</v>
@@ -2365,19 +2365,19 @@
         <v>442088</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>426133</v>
+        <v>427111</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>455559</v>
+        <v>457239</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8271729560763182</v>
+        <v>0.8271729560763184</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.797320416312469</v>
+        <v>0.7991485935699462</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8523780475465976</v>
+        <v>0.8555211869955647</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>213217</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>186554</v>
+        <v>185894</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>243977</v>
+        <v>244569</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.2971384437866491</v>
+        <v>0.2971384437866489</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2599812530279529</v>
+        <v>0.2590609921500228</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.34000565330951</v>
+        <v>0.3408315387007632</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>303</v>
@@ -2490,19 +2490,19 @@
         <v>239733</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>214733</v>
+        <v>214675</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>264660</v>
+        <v>267358</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.3120934307902649</v>
+        <v>0.312093430790265</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2795479826310828</v>
+        <v>0.279471694537609</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3445447417286818</v>
+        <v>0.348057505531219</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>482</v>
@@ -2511,19 +2511,19 @@
         <v>452949</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>417916</v>
+        <v>417709</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>492635</v>
+        <v>491967</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3048704892636495</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2812902011133224</v>
+        <v>0.2811512061182854</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3315816505398452</v>
+        <v>0.3311323564060195</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>16184</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8835</v>
+        <v>9161</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>27454</v>
+        <v>28040</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.02255417681153842</v>
+        <v>0.02255417681153841</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01231214485686901</v>
+        <v>0.01276618738422425</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03825954335860065</v>
+        <v>0.03907671617480418</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>15</v>
@@ -2561,19 +2561,19 @@
         <v>13408</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>7457</v>
+        <v>7784</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>23412</v>
+        <v>24708</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.01745564095380408</v>
+        <v>0.01745564095380409</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.009708459377174109</v>
+        <v>0.01013360970922168</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03047882512043492</v>
+        <v>0.03216635149562463</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>29</v>
@@ -2582,19 +2582,19 @@
         <v>29593</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>19436</v>
+        <v>19797</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>43663</v>
+        <v>42289</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01991812563285214</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01308207613312231</v>
+        <v>0.01332518876175055</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02938876552055914</v>
+        <v>0.02846409368644003</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>488166</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>456533</v>
+        <v>457358</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>516218</v>
+        <v>516389</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.6803073794018127</v>
+        <v>0.6803073794018125</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.6362239598560323</v>
+        <v>0.63737302918606</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7194007470146644</v>
+        <v>0.7196386771979358</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>637</v>
@@ -2632,19 +2632,19 @@
         <v>515003</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>489715</v>
+        <v>489175</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>539774</v>
+        <v>539615</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.670450928255931</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.6375297258711274</v>
+        <v>0.6368268171003385</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7026994793978151</v>
+        <v>0.7024922799200956</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1041</v>
@@ -2653,19 +2653,19 @@
         <v>1003169</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>962797</v>
+        <v>964533</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1040706</v>
+        <v>1040548</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.6752113851034982</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.6480379390793737</v>
+        <v>0.649206441359534</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7004768174268878</v>
+        <v>0.7003705293027488</v>
       </c>
     </row>
     <row r="31">
@@ -2757,19 +2757,19 @@
         <v>29398</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>20124</v>
+        <v>20317</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>41386</v>
+        <v>42996</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03683579951117527</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02521590651059137</v>
+        <v>0.02545766071939479</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05185763966647792</v>
+        <v>0.05387421647952324</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>30</v>
@@ -2778,19 +2778,19 @@
         <v>23055</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>15753</v>
+        <v>15606</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>32707</v>
+        <v>32678</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02773242545440341</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01894955799090125</v>
+        <v>0.0187723187403335</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03934240168056934</v>
+        <v>0.03930845447057601</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>59</v>
@@ -2799,19 +2799,19 @@
         <v>52452</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>40109</v>
+        <v>39383</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>67516</v>
+        <v>67762</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03219120296539092</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02461547354141646</v>
+        <v>0.02417025500832092</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04143618015909353</v>
+        <v>0.04158680358698749</v>
       </c>
     </row>
     <row r="33">
@@ -2828,19 +2828,19 @@
         <v>10516</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>5210</v>
+        <v>5193</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>18947</v>
+        <v>19339</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01317637693563821</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.006527630701969299</v>
+        <v>0.006507341146403719</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02374103196838347</v>
+        <v>0.02423257973518025</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>8</v>
@@ -2849,19 +2849,19 @@
         <v>6113</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>2785</v>
+        <v>2856</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>12132</v>
+        <v>11492</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.007353471034120672</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.003350258959867196</v>
+        <v>0.003435663622837699</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.0145937720836695</v>
+        <v>0.0138234795513203</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>18</v>
@@ -2870,19 +2870,19 @@
         <v>16629</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>10291</v>
+        <v>9842</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>26895</v>
+        <v>27082</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01020549509908473</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.006316073781769268</v>
+        <v>0.006040514975778164</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01650605522488344</v>
+        <v>0.01662075181238064</v>
       </c>
     </row>
     <row r="34">
@@ -2899,19 +2899,19 @@
         <v>758159</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>743287</v>
+        <v>743478</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>768454</v>
+        <v>768281</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9499878235531863</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9313535396839003</v>
+        <v>0.9315931749335677</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9628884216624493</v>
+        <v>0.9626717423332213</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1024</v>
@@ -2920,19 +2920,19 @@
         <v>802163</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>791789</v>
+        <v>791917</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>810715</v>
+        <v>810447</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.9649141035114759</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9524348832254153</v>
+        <v>0.9525894396954223</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9752006217623714</v>
+        <v>0.9748782387532843</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1747</v>
@@ -2941,19 +2941,19 @@
         <v>1560322</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1544264</v>
+        <v>1543422</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1575389</v>
+        <v>1574747</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9576033019355245</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9477481301184291</v>
+        <v>0.9472314685398772</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9668502265672861</v>
+        <v>0.9664561366046132</v>
       </c>
     </row>
     <row r="35">
@@ -3045,19 +3045,19 @@
         <v>905166</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>846735</v>
+        <v>839147</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>966242</v>
+        <v>966780</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2564531199090962</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2398984794885098</v>
+        <v>0.2377487064819818</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2737573549633475</v>
+        <v>0.2739099440644952</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1454</v>
@@ -3066,19 +3066,19 @@
         <v>1016345</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>970217</v>
+        <v>965250</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1068406</v>
+        <v>1066571</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2724593930985077</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2600934558008679</v>
+        <v>0.2587620077105765</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2864157824830123</v>
+        <v>0.2859238884810985</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2271</v>
@@ -3087,19 +3087,19 @@
         <v>1921511</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1848551</v>
+        <v>1838452</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2001598</v>
+        <v>1995842</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2646775123409436</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2546277337675658</v>
+        <v>0.2532365919963544</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2757091832229056</v>
+        <v>0.2749162742140404</v>
       </c>
     </row>
     <row r="37">
@@ -3116,19 +3116,19 @@
         <v>53533</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>40724</v>
+        <v>39563</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>72171</v>
+        <v>71159</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.01516709118833543</v>
+        <v>0.01516709118833542</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0115380962112389</v>
+        <v>0.01120912930616355</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02044759412252135</v>
+        <v>0.02016101233433917</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>64</v>
@@ -3137,19 +3137,19 @@
         <v>40889</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>31368</v>
+        <v>30997</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>52265</v>
+        <v>52202</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01096134281555813</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.008409158818806521</v>
+        <v>0.008309530470329151</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.01401101543025952</v>
+        <v>0.01399424517532163</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>114</v>
@@ -3158,19 +3158,19 @@
         <v>94422</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>78376</v>
+        <v>77732</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>116458</v>
+        <v>116986</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01300608064715549</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01079586878321201</v>
+        <v>0.0107071575006364</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.01604142820530841</v>
+        <v>0.01611411470154344</v>
       </c>
     </row>
     <row r="38">
@@ -3187,19 +3187,19 @@
         <v>2570857</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>2507720</v>
+        <v>2508168</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>2630312</v>
+        <v>2637850</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.7283797889025684</v>
+        <v>0.7283797889025682</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7104916923127581</v>
+        <v>0.7106185207678144</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.7452245201934878</v>
+        <v>0.7473603119597839</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>3841</v>
@@ -3208,19 +3208,19 @@
         <v>2673028</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2620434</v>
+        <v>2620370</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>2721175</v>
+        <v>2726115</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.7165792640859341</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7024799533115648</v>
+        <v>0.7024628376879107</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7294862315751959</v>
+        <v>0.7308105077403686</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>6347</v>
@@ -3229,19 +3229,19 @@
         <v>5243886</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>5164534</v>
+        <v>5168251</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>5325119</v>
+        <v>5327250</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.7223164070119009</v>
+        <v>0.722316407011901</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.711386207343697</v>
+        <v>0.7118981842607053</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7335059202066905</v>
+        <v>0.7337993519014692</v>
       </c>
     </row>
     <row r="39">
